--- a/UseCaseScenarij/PrijavaKorisnikaUSistemIAzuriranje.xlsx
+++ b/UseCaseScenarij/PrijavaKorisnikaUSistemIAzuriranje.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="49">
   <si>
     <t>Naziv</t>
   </si>
@@ -57,9 +57,6 @@
     <t>Korisnik</t>
   </si>
   <si>
-    <t>Sistem</t>
-  </si>
-  <si>
     <t>1. Pristupanje interfejsu za prijavu</t>
   </si>
   <si>
@@ -163,6 +160,12 @@
   </si>
   <si>
     <t>Sistem MEDICA</t>
+  </si>
+  <si>
+    <t>Baza Podataka</t>
+  </si>
+  <si>
+    <t>5. Obavještavanje korisnika da je ažuriranje uspješno</t>
   </si>
 </sst>
 </file>
@@ -250,11 +253,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -536,31 +539,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E46"/>
+  <dimension ref="A1:E48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B43" sqref="B43"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="31.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="44" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="3"/>
+    <col min="2" max="2" width="30" style="3" customWidth="1"/>
+    <col min="3" max="3" width="15.28515625" style="3" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="B1" s="10"/>
+      <c r="A1" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="11"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -568,7 +572,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D3" s="8"/>
       <c r="E3" s="8"/>
@@ -583,7 +587,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>8</v>
@@ -591,7 +595,7 @@
     </row>
     <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>9</v>
@@ -618,7 +622,7 @@
         <v>5</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -632,31 +636,31 @@
       <c r="B11" s="6"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="11" t="s">
+      <c r="A12" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="11" t="s">
-        <v>47</v>
+      <c r="B12" s="10" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B13" s="2"/>
     </row>
     <row r="14" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
       <c r="B15" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -665,52 +669,52 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17" s="6" t="s">
         <v>15</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="4" t="s">
+      <c r="A19" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B19" s="10" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="4"/>
       <c r="B20" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A21" s="4"/>
       <c r="B21" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B22" s="2"/>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B25" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -718,7 +722,7 @@
         <v>1</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -726,23 +730,23 @@
         <v>6</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
@@ -758,7 +762,7 @@
         <v>4</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
@@ -766,87 +770,101 @@
         <v>5</v>
       </c>
       <c r="B32" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B36" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="C36" s="10" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B35" s="11" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A36" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B36" s="2"/>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="B37" s="2"/>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="2"/>
-      <c r="B38" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C37" s="2"/>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B38" s="2"/>
+      <c r="C38" s="2"/>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="2"/>
       <c r="B39" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C39" s="2"/>
+    </row>
+    <row r="40" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A40" s="2"/>
+      <c r="B40" s="2"/>
+      <c r="C40" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A41" s="2"/>
+      <c r="B41" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C41" s="2"/>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A44" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B45" s="10" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="2"/>
+      <c r="B46" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A47" s="2"/>
+      <c r="B47" s="9" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A42" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B43" s="11" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" s="2"/>
-      <c r="B44" s="2" t="s">
+    <row r="48" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A48" s="2" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A45" s="2"/>
-      <c r="B45" s="9" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A46" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B46" s="2"/>
+      <c r="B48" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
